--- a/python/syntax_elements.xlsx
+++ b/python/syntax_elements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="241">
   <si>
     <t>NAL_UNIT_TOTAL_BODY</t>
   </si>
@@ -738,6 +738,15 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Prediction</t>
   </si>
 </sst>
 </file>
@@ -781,22 +790,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -812,12 +838,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C193" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C193" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:C193"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Syntax Element" dataDxfId="0"/>
+    <tableColumn id="1" name="Syntax Element" dataDxfId="1"/>
     <tableColumn id="2" name="Purpose Within Stream"/>
-    <tableColumn id="3" name="Category"/>
+    <tableColumn id="3" name="Category" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1091,1175 +1117,1431 @@
   </sheetPr>
   <dimension ref="A1:C465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.140625" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C19" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C22" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C23" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C24" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C25" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C26" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C27" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C28" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C29" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C30" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="C31" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="C32" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="C33" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="C41" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="C42" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="C43" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="C44" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="C167" s="3"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="C170" s="3"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="C171" s="3"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="C173" s="3"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="C174" s="3"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="C175" s="3"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="C176" s="3"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="C177" s="3"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+      <c r="C178" s="3"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="C180" s="3"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="C183" s="3"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="C184" s="3"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="C185" s="3"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="C187" s="3"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="C188" s="3"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="C190" s="3"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="C191" s="3"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C193" s="3"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">

--- a/python/syntax_elements.xlsx
+++ b/python/syntax_elements.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onsmith\Documents\apps\hm-bit-count-decoder\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\apps\hm-bit-count-decoder\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="242">
   <si>
     <t>NAL_UNIT_TOTAL_BODY</t>
   </si>
@@ -638,9 +638,6 @@
     <t>When motion vectors are reconstructed in non-merge mode, these bits specify the index of the motion vector that should be used for inter-frame prediction.</t>
   </si>
   <si>
-    <t>These bits specify whether a CU is split into subparts.</t>
-  </si>
-  <si>
     <t>These bits signal the size of a CU's partition.</t>
   </si>
   <si>
@@ -747,13 +744,19 @@
   </si>
   <si>
     <t>Prediction</t>
+  </si>
+  <si>
+    <t>These bits signal whether a CU is partitioned into subparts.</t>
+  </si>
+  <si>
+    <t>Verified</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,13 +772,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -787,10 +802,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -810,11 +826,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -838,12 +861,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C193" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:C193"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Syntax Element" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D193" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D193"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Syntax Element" dataDxfId="2"/>
     <tableColumn id="2" name="Purpose Within Stream"/>
-    <tableColumn id="3" name="Category" dataDxfId="0"/>
+    <tableColumn id="3" name="Category" dataDxfId="1"/>
+    <tableColumn id="4" name="Verified" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1115,10 +1139,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C465"/>
+  <dimension ref="A1:D465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,9 +1150,10 @@
     <col min="1" max="1" width="44.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="77.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>192</v>
       </c>
@@ -1136,10 +1161,13 @@
         <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1147,10 +1175,11 @@
         <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1158,8 +1187,9 @@
         <v>195</v>
       </c>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1167,8 +1197,9 @@
         <v>196</v>
       </c>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1176,8 +1207,9 @@
         <v>197</v>
       </c>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1185,8 +1217,9 @@
         <v>198</v>
       </c>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1194,10 +1227,11 @@
         <v>199</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1205,10 +1239,11 @@
         <v>200</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1216,10 +1251,11 @@
         <v>201</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1227,10 +1263,11 @@
         <v>202</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1238,1310 +1275,1495 @@
         <v>203</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C137" s="3"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C138" s="3"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C139" s="3"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C140" s="3"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C141" s="3"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C142" s="3"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C143" s="3"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C144" s="3"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C145" s="3"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="3"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C147" s="3"/>
-    </row>
-    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C148" s="3"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C149" s="3"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
       <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="3"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
       <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C155" s="3"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C156" s="3"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>155</v>
       </c>
       <c r="C157" s="3"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
       <c r="C158" s="3"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C159" s="3"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C160" s="3"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C161" s="3"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C162" s="3"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C163" s="3"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C164" s="3"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="3"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C166" s="3"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C167" s="3"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C168" s="3"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C169" s="3"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C170" s="3"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C171" s="3"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C172" s="3"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>171</v>
       </c>
       <c r="C173" s="3"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="3"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C175" s="3"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>174</v>
       </c>
       <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C177" s="3"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C178" s="3"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C179" s="3"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C180" s="3"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>179</v>
       </c>
       <c r="C181" s="3"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>180</v>
       </c>
       <c r="C182" s="3"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C183" s="3"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C184" s="3"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>183</v>
       </c>
       <c r="C185" s="3"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>184</v>
       </c>
       <c r="C186" s="3"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C187" s="3"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>186</v>
       </c>
       <c r="C188" s="3"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>187</v>
       </c>
       <c r="C189" s="3"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C190" s="3"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>189</v>
       </c>
       <c r="C191" s="3"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C192" s="3"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C193" s="3"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">

--- a/python/syntax_elements.xlsx
+++ b/python/syntax_elements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="242">
   <si>
     <t>NAL_UNIT_TOTAL_BODY</t>
   </si>
@@ -626,9 +626,6 @@
     <t>These bits signal whether transquant (TQ) bypass is enabled for a given coding unit (CU). When transquant bypass is enabled, DCT transform and quantization are skipped for a coding unit's residual values and they are instead losslessly, directly encoded (perhaps differentially with RDPCM).</t>
   </si>
   <si>
-    <t>These bits specify if prediction motion vectors for a given CU should be reconstructed in skip mode, which is a special case of merge mode.</t>
-  </si>
-  <si>
     <t>These bits specify if prediction motion vectors for a given PU should be reconstructed using a motion vector candidate in merge mode.</t>
   </si>
   <si>
@@ -638,12 +635,6 @@
     <t>When motion vectors are reconstructed in non-merge mode, these bits specify the index of the motion vector that should be used for inter-frame prediction.</t>
   </si>
   <si>
-    <t>These bits signal the size of a CU's partition.</t>
-  </si>
-  <si>
-    <t>Counts bits spent signaling the prediction mode (0 for inter, 1 for intra).</t>
-  </si>
-  <si>
     <t>Counts bits spent signaling intra-frame prediction angle directions.</t>
   </si>
   <si>
@@ -659,21 +650,12 @@
     <t>Counts equal-probability bits that encode motion vector differences.</t>
   </si>
   <si>
-    <t>Counts bits used to signal whether a transform quadtree is subdivided.</t>
-  </si>
-  <si>
-    <t>Counts bits used to specify a quad-tree (QT) root coded block flag (CBF). These bits are set to 1 if the quad-tree root has non-zero quantized residual coefficients.</t>
-  </si>
-  <si>
     <t>Counts equal-probability bits that encode changes in the quantization factor QP.</t>
   </si>
   <si>
     <t>Counts bits used for adjustments in the quantization factor QP used for chroma samples.</t>
   </si>
   <si>
-    <t>Counts bits used to specify a quad-tree (QT) coded block flag (CBF). These bits are set to 1 if the quad-tree has non-zero quantized residual coefficients.</t>
-  </si>
-  <si>
     <t>Counts cross-component prediction bits, for predicting chroma residuals based on existing luma residuals.</t>
   </si>
   <si>
@@ -704,9 +686,6 @@
     <t>Unused in HM reference code!</t>
   </si>
   <si>
-    <t>Counts bits when I_PCM mode (intra pulse code modulation) is invoked at the CU or TU level to directly code raw sample values at a predefined precision.</t>
-  </si>
-  <si>
     <t>Appears in the parseSliceHeader() routine...</t>
   </si>
   <si>
@@ -746,10 +725,31 @@
     <t>Prediction</t>
   </si>
   <si>
-    <t>These bits signal whether a CU is partitioned into subparts.</t>
-  </si>
-  <si>
     <t>Verified</t>
+  </si>
+  <si>
+    <t>These bits specify whether inter-frame CUs are coded in skip mode, which means the inter prediction indicator, reference indices, and motion vectors are borrowed from a neighboring PU specified by a coded merge index. Furthermore, skip coded CUs do not encode a residual signal.</t>
+  </si>
+  <si>
+    <t>These bits signal whether a CU is further partitioned into sub-Cus.</t>
+  </si>
+  <si>
+    <t>These bits signal how a leaf CU is partitioned into prediction units (PUs).</t>
+  </si>
+  <si>
+    <t>These bits signal if a CU is coded using inter-frame or intra-frame prediction.</t>
+  </si>
+  <si>
+    <t>Counts bits when I_PCM mode (intra pulse code modulation) is invoked at the CU or TU level to directly code raw sample values at a predefined precision (specified in the SPS) with no prediction or residual coding.</t>
+  </si>
+  <si>
+    <t>Counts bits that specify a transform unit's (TU's) coded block flag (CBF). If a TU CBF is set to 1, then the TU contains non-zero coefficients.</t>
+  </si>
+  <si>
+    <t>Counts bits that specify the transform unit (TU) quadtree (QT) root coded block flag (CBF). If a TU CBF is set to 1, then the TU contains non-zero coefficients.</t>
+  </si>
+  <si>
+    <t>Counts bits used to signal whether a transform unit (TU) quadtree (QT) is subdivided.</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -836,7 +836,7 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1141,8 +1141,8 @@
   </sheetPr>
   <dimension ref="A1:D465"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,10 +1161,10 @@
         <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1175,9 +1175,9 @@
         <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1187,7 +1187,7 @@
         <v>195</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1197,7 +1197,7 @@
         <v>196</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1207,7 +1207,7 @@
         <v>197</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1217,7 +1217,7 @@
         <v>198</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1227,70 +1227,74 @@
         <v>199</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1298,1428 +1302,1440 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="7" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="2"/>
+      <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="2"/>
+      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="2"/>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="3"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" s="2"/>
+      <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="2"/>
+      <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="3"/>
-      <c r="D83" s="2"/>
+      <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="2"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="3"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C88" s="3"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C89" s="3"/>
-      <c r="D89" s="2"/>
+      <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C90" s="3"/>
-      <c r="D90" s="2"/>
+      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C91" s="3"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C92" s="3"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C93" s="3"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C94" s="3"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C95" s="3"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C96" s="3"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C97" s="3"/>
-      <c r="D97" s="2"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C98" s="3"/>
-      <c r="D98" s="2"/>
+      <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C99" s="3"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C100" s="3"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C101" s="3"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C102" s="3"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C103" s="3"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C104" s="3"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C105" s="3"/>
-      <c r="D105" s="2"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C106" s="3"/>
-      <c r="D106" s="2"/>
+      <c r="D106" s="3"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C107" s="3"/>
-      <c r="D107" s="2"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C108" s="3"/>
-      <c r="D108" s="2"/>
+      <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C109" s="3"/>
-      <c r="D109" s="2"/>
+      <c r="D109" s="3"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C110" s="3"/>
-      <c r="D110" s="2"/>
+      <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="3"/>
-      <c r="D111" s="2"/>
+      <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C112" s="3"/>
-      <c r="D112" s="2"/>
+      <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C113" s="3"/>
-      <c r="D113" s="2"/>
+      <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C114" s="3"/>
-      <c r="D114" s="2"/>
+      <c r="D114" s="3"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C115" s="3"/>
-      <c r="D115" s="2"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C116" s="3"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="3"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C117" s="3"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C118" s="3"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C119" s="3"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="3"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C120" s="3"/>
-      <c r="D120" s="2"/>
+      <c r="D120" s="3"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C121" s="3"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="3"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="3"/>
-      <c r="D122" s="2"/>
+      <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C123" s="3"/>
-      <c r="D123" s="2"/>
+      <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C124" s="3"/>
-      <c r="D124" s="2"/>
+      <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C125" s="3"/>
-      <c r="D125" s="2"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C126" s="3"/>
-      <c r="D126" s="2"/>
+      <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C127" s="3"/>
-      <c r="D127" s="2"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C128" s="3"/>
-      <c r="D128" s="2"/>
+      <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C129" s="3"/>
-      <c r="D129" s="2"/>
+      <c r="D129" s="3"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C130" s="3"/>
-      <c r="D130" s="2"/>
+      <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C131" s="3"/>
-      <c r="D131" s="2"/>
+      <c r="D131" s="3"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C132" s="3"/>
-      <c r="D132" s="2"/>
+      <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C133" s="3"/>
-      <c r="D133" s="2"/>
+      <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C134" s="3"/>
-      <c r="D134" s="2"/>
+      <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C135" s="3"/>
-      <c r="D135" s="2"/>
+      <c r="D135" s="3"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C136" s="3"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C137" s="3"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C138" s="3"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C139" s="3"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C140" s="3"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C141" s="3"/>
-      <c r="D141" s="2"/>
+      <c r="D141" s="3"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C142" s="3"/>
-      <c r="D142" s="2"/>
+      <c r="D142" s="3"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C143" s="3"/>
-      <c r="D143" s="2"/>
+      <c r="D143" s="3"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C144" s="3"/>
-      <c r="D144" s="2"/>
+      <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C145" s="3"/>
-      <c r="D145" s="2"/>
+      <c r="D145" s="3"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="3"/>
-      <c r="D146" s="2"/>
+      <c r="D146" s="3"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C147" s="3"/>
-      <c r="D147" s="2"/>
+      <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C148" s="3"/>
-      <c r="D148" s="2"/>
+      <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C149" s="3"/>
-      <c r="D149" s="2"/>
+      <c r="D149" s="3"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
       <c r="C150" s="3"/>
-      <c r="D150" s="2"/>
+      <c r="D150" s="3"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="3"/>
-      <c r="D151" s="2"/>
+      <c r="D151" s="3"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="3"/>
-      <c r="D152" s="2"/>
+      <c r="D152" s="3"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
       <c r="C153" s="3"/>
-      <c r="D153" s="2"/>
+      <c r="D153" s="3"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C154" s="3"/>
-      <c r="D154" s="2"/>
+      <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C155" s="3"/>
-      <c r="D155" s="2"/>
+      <c r="D155" s="3"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C156" s="3"/>
-      <c r="D156" s="2"/>
+      <c r="D156" s="3"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>155</v>
       </c>
       <c r="C157" s="3"/>
-      <c r="D157" s="2"/>
+      <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
       <c r="C158" s="3"/>
-      <c r="D158" s="2"/>
+      <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C159" s="3"/>
-      <c r="D159" s="2"/>
+      <c r="D159" s="3"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C160" s="3"/>
-      <c r="D160" s="2"/>
+      <c r="D160" s="3"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C161" s="3"/>
-      <c r="D161" s="2"/>
+      <c r="D161" s="3"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C162" s="3"/>
-      <c r="D162" s="2"/>
+      <c r="D162" s="3"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C163" s="3"/>
-      <c r="D163" s="2"/>
+      <c r="D163" s="3"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C164" s="3"/>
-      <c r="D164" s="2"/>
+      <c r="D164" s="3"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="3"/>
-      <c r="D165" s="2"/>
+      <c r="D165" s="3"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C166" s="3"/>
-      <c r="D166" s="2"/>
+      <c r="D166" s="3"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C167" s="3"/>
-      <c r="D167" s="2"/>
+      <c r="D167" s="3"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C168" s="3"/>
-      <c r="D168" s="2"/>
+      <c r="D168" s="3"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C169" s="3"/>
-      <c r="D169" s="2"/>
+      <c r="D169" s="3"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C170" s="3"/>
-      <c r="D170" s="2"/>
+      <c r="D170" s="3"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C171" s="3"/>
-      <c r="D171" s="2"/>
+      <c r="D171" s="3"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C172" s="3"/>
-      <c r="D172" s="2"/>
+      <c r="D172" s="3"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>171</v>
       </c>
       <c r="C173" s="3"/>
-      <c r="D173" s="2"/>
+      <c r="D173" s="3"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="3"/>
-      <c r="D174" s="2"/>
+      <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C175" s="3"/>
-      <c r="D175" s="2"/>
+      <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>174</v>
       </c>
       <c r="C176" s="3"/>
-      <c r="D176" s="2"/>
+      <c r="D176" s="3"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C177" s="3"/>
-      <c r="D177" s="2"/>
+      <c r="D177" s="3"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C178" s="3"/>
-      <c r="D178" s="2"/>
+      <c r="D178" s="3"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C179" s="3"/>
-      <c r="D179" s="2"/>
+      <c r="D179" s="3"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C180" s="3"/>
-      <c r="D180" s="2"/>
+      <c r="D180" s="3"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>179</v>
       </c>
       <c r="C181" s="3"/>
-      <c r="D181" s="2"/>
+      <c r="D181" s="3"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>180</v>
       </c>
       <c r="C182" s="3"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="3"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>181</v>
       </c>
       <c r="C183" s="3"/>
-      <c r="D183" s="2"/>
+      <c r="D183" s="3"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C184" s="3"/>
-      <c r="D184" s="2"/>
+      <c r="D184" s="3"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>183</v>
       </c>
       <c r="C185" s="3"/>
-      <c r="D185" s="2"/>
+      <c r="D185" s="3"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>184</v>
       </c>
       <c r="C186" s="3"/>
-      <c r="D186" s="2"/>
+      <c r="D186" s="3"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C187" s="3"/>
-      <c r="D187" s="2"/>
+      <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>186</v>
       </c>
       <c r="C188" s="3"/>
-      <c r="D188" s="2"/>
+      <c r="D188" s="3"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>187</v>
       </c>
       <c r="C189" s="3"/>
-      <c r="D189" s="2"/>
+      <c r="D189" s="3"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C190" s="3"/>
-      <c r="D190" s="2"/>
+      <c r="D190" s="3"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>189</v>
       </c>
       <c r="C191" s="3"/>
-      <c r="D191" s="2"/>
+      <c r="D191" s="3"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C192" s="3"/>
-      <c r="D192" s="2"/>
+      <c r="D192" s="3"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C193" s="3"/>
-      <c r="D193" s="2"/>
+      <c r="D193" s="3"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194"/>
